--- a/dataset_v1/task_sheet_answers/EntireShippingCosts/5_EntireShippingCosts/5_EntireShippingCosts_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/EntireShippingCosts/5_EntireShippingCosts/5_EntireShippingCosts_gt1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -59,22 +59,22 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 6" xfId="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1738,7 +1738,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1756,9 +1756,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="17.77734375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="11.21875" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.6640625" customWidth="1" style="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" style="1" width="17.77734375"/>
+    <col customWidth="1" max="3" min="3" style="1" width="11.21875"/>
+    <col customWidth="1" max="4" min="4" style="1" width="11.6640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3119,6 +3119,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>